--- a/init/create_hander.xlsx
+++ b/init/create_hander.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10960" yWindow="7260" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>拍手名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,24 +37,126 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>何龙</t>
+    <t>何1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>何凤</t>
+    <t>何2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>袁凯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>袁君</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>君凯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>何3</t>
+  </si>
+  <si>
+    <t>何4</t>
+  </si>
+  <si>
+    <t>何5</t>
+  </si>
+  <si>
+    <t>何6</t>
+  </si>
+  <si>
+    <t>何7</t>
+  </si>
+  <si>
+    <t>何8</t>
+  </si>
+  <si>
+    <t>何9</t>
+  </si>
+  <si>
+    <t>何10</t>
+  </si>
+  <si>
+    <t>何11</t>
+  </si>
+  <si>
+    <t>何12</t>
+  </si>
+  <si>
+    <t>何13</t>
+  </si>
+  <si>
+    <t>何14</t>
+  </si>
+  <si>
+    <t>何15</t>
+  </si>
+  <si>
+    <t>何16</t>
+  </si>
+  <si>
+    <t>何17</t>
+  </si>
+  <si>
+    <t>何18</t>
+  </si>
+  <si>
+    <t>何19</t>
+  </si>
+  <si>
+    <t>何20</t>
+  </si>
+  <si>
+    <t>何21</t>
+  </si>
+  <si>
+    <t>何22</t>
+  </si>
+  <si>
+    <t>何23</t>
+  </si>
+  <si>
+    <t>何24</t>
+  </si>
+  <si>
+    <t>何25</t>
+  </si>
+  <si>
+    <t>何26</t>
+  </si>
+  <si>
+    <t>何27</t>
+  </si>
+  <si>
+    <t>何28</t>
+  </si>
+  <si>
+    <t>何29</t>
+  </si>
+  <si>
+    <t>何30</t>
+  </si>
+  <si>
+    <t>何31</t>
+  </si>
+  <si>
+    <t>何32</t>
+  </si>
+  <si>
+    <t>何33</t>
+  </si>
+  <si>
+    <t>何34</t>
+  </si>
+  <si>
+    <t>何35</t>
+  </si>
+  <si>
+    <t>何36</t>
+  </si>
+  <si>
+    <t>何37</t>
+  </si>
+  <si>
+    <t>何38</t>
+  </si>
+  <si>
+    <t>何39</t>
+  </si>
+  <si>
+    <t>何40</t>
   </si>
 </sst>
 </file>
@@ -431,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -520,6 +622,496 @@
         <v>500</v>
       </c>
       <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+      <c r="C7">
+        <v>500</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>50</v>
+      </c>
+      <c r="C8">
+        <v>500</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>50</v>
+      </c>
+      <c r="C9">
+        <v>500</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>50</v>
+      </c>
+      <c r="C10">
+        <v>500</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <v>500</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>50</v>
+      </c>
+      <c r="C12">
+        <v>500</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>50</v>
+      </c>
+      <c r="C13">
+        <v>500</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>50</v>
+      </c>
+      <c r="C14">
+        <v>500</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>50</v>
+      </c>
+      <c r="C15">
+        <v>500</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>50</v>
+      </c>
+      <c r="C16">
+        <v>500</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>50</v>
+      </c>
+      <c r="C17">
+        <v>500</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>50</v>
+      </c>
+      <c r="C18">
+        <v>500</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>50</v>
+      </c>
+      <c r="C19">
+        <v>500</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>50</v>
+      </c>
+      <c r="C20">
+        <v>500</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>50</v>
+      </c>
+      <c r="C21">
+        <v>500</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>50</v>
+      </c>
+      <c r="C22">
+        <v>500</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>50</v>
+      </c>
+      <c r="C23">
+        <v>500</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>50</v>
+      </c>
+      <c r="C24">
+        <v>500</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>50</v>
+      </c>
+      <c r="C25">
+        <v>500</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>50</v>
+      </c>
+      <c r="C26">
+        <v>500</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <v>50</v>
+      </c>
+      <c r="C27">
+        <v>500</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28">
+        <v>50</v>
+      </c>
+      <c r="C28">
+        <v>500</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29">
+        <v>50</v>
+      </c>
+      <c r="C29">
+        <v>500</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30">
+        <v>50</v>
+      </c>
+      <c r="C30">
+        <v>500</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31">
+        <v>50</v>
+      </c>
+      <c r="C31">
+        <v>500</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32">
+        <v>50</v>
+      </c>
+      <c r="C32">
+        <v>500</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33">
+        <v>50</v>
+      </c>
+      <c r="C33">
+        <v>500</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34">
+        <v>50</v>
+      </c>
+      <c r="C34">
+        <v>500</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35">
+        <v>50</v>
+      </c>
+      <c r="C35">
+        <v>500</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36">
+        <v>50</v>
+      </c>
+      <c r="C36">
+        <v>500</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37">
+        <v>50</v>
+      </c>
+      <c r="C37">
+        <v>500</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38">
+        <v>50</v>
+      </c>
+      <c r="C38">
+        <v>500</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39">
+        <v>50</v>
+      </c>
+      <c r="C39">
+        <v>500</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40">
+        <v>50</v>
+      </c>
+      <c r="C40">
+        <v>500</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41">
+        <v>50</v>
+      </c>
+      <c r="C41">
+        <v>500</v>
+      </c>
+      <c r="D41">
         <v>0</v>
       </c>
     </row>

--- a/init/create_hander.xlsx
+++ b/init/create_hander.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="18940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>拍手名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,13 +157,70 @@
   </si>
   <si>
     <t>何40</t>
+  </si>
+  <si>
+    <t>何41</t>
+  </si>
+  <si>
+    <t>何42</t>
+  </si>
+  <si>
+    <t>何43</t>
+  </si>
+  <si>
+    <t>何44</t>
+  </si>
+  <si>
+    <t>何45</t>
+  </si>
+  <si>
+    <t>何46</t>
+  </si>
+  <si>
+    <t>何47</t>
+  </si>
+  <si>
+    <t>何48</t>
+  </si>
+  <si>
+    <t>何49</t>
+  </si>
+  <si>
+    <t>何50</t>
+  </si>
+  <si>
+    <t>何51</t>
+  </si>
+  <si>
+    <t>何52</t>
+  </si>
+  <si>
+    <t>何53</t>
+  </si>
+  <si>
+    <t>何54</t>
+  </si>
+  <si>
+    <t>何55</t>
+  </si>
+  <si>
+    <t>何56</t>
+  </si>
+  <si>
+    <t>何57</t>
+  </si>
+  <si>
+    <t>何58</t>
+  </si>
+  <si>
+    <t>何59</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -174,6 +231,24 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -197,13 +272,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -533,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1115,9 +1194,276 @@
         <v>0</v>
       </c>
     </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42">
+        <v>50</v>
+      </c>
+      <c r="C42">
+        <v>500</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43">
+        <v>50</v>
+      </c>
+      <c r="C43">
+        <v>500</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44">
+        <v>50</v>
+      </c>
+      <c r="C44">
+        <v>500</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45">
+        <v>50</v>
+      </c>
+      <c r="C45">
+        <v>500</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46">
+        <v>50</v>
+      </c>
+      <c r="C46">
+        <v>500</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47">
+        <v>50</v>
+      </c>
+      <c r="C47">
+        <v>500</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48">
+        <v>50</v>
+      </c>
+      <c r="C48">
+        <v>500</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49">
+        <v>50</v>
+      </c>
+      <c r="C49">
+        <v>500</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>500</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51">
+        <v>500</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52">
+        <v>50</v>
+      </c>
+      <c r="C52">
+        <v>500</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53">
+        <v>50</v>
+      </c>
+      <c r="C53">
+        <v>500</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54">
+        <v>50</v>
+      </c>
+      <c r="C54">
+        <v>500</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55">
+        <v>50</v>
+      </c>
+      <c r="C55">
+        <v>500</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56">
+        <v>50</v>
+      </c>
+      <c r="C56">
+        <v>500</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57">
+        <v>50</v>
+      </c>
+      <c r="C57">
+        <v>500</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58">
+        <v>50</v>
+      </c>
+      <c r="C58">
+        <v>500</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59">
+        <v>50</v>
+      </c>
+      <c r="C59">
+        <v>500</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60">
+        <v>50</v>
+      </c>
+      <c r="C60">
+        <v>500</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/init/create_hander.xlsx
+++ b/init/create_hander.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11320" yWindow="1080" windowWidth="15160" windowHeight="18940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15820" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
   <si>
     <t>拍手名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -188,6 +188,10 @@
   </si>
   <si>
     <t>未知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴佳乐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -254,8 +258,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -270,11 +294,31 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="25">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -604,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -804,10 +848,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2">
-        <v>16621132173</v>
+        <v>13641923121</v>
       </c>
       <c r="C12" s="1">
         <v>50</v>
@@ -820,11 +864,11 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="2" t="s">
-        <v>16</v>
+      <c r="A13" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B13" s="2">
-        <v>18003890093</v>
+        <v>13918580174</v>
       </c>
       <c r="C13" s="1">
         <v>50</v>
@@ -837,11 +881,11 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
-        <v>17</v>
+      <c r="A14" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B14" s="2">
-        <v>13918580174</v>
+        <v>15021031314</v>
       </c>
       <c r="C14" s="1">
         <v>50</v>
@@ -854,11 +898,11 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="1" t="s">
-        <v>18</v>
+      <c r="A15" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B15" s="2">
-        <v>18317051518</v>
+        <v>18817927267</v>
       </c>
       <c r="C15" s="1">
         <v>50</v>
@@ -872,10 +916,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2">
-        <v>13641923121</v>
+        <v>18651197401</v>
       </c>
       <c r="C16" s="1">
         <v>50</v>
@@ -889,10 +933,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B17" s="2">
-        <v>13671590684</v>
+        <v>17521299293</v>
       </c>
       <c r="C17" s="1">
         <v>50</v>
@@ -906,10 +950,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B18" s="2">
-        <v>15807473610</v>
+        <v>13162546993</v>
       </c>
       <c r="C18" s="1">
         <v>50</v>
@@ -923,10 +967,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="2">
-        <v>15999020637</v>
+        <v>15807473610</v>
       </c>
       <c r="C19" s="1">
         <v>50</v>
@@ -940,10 +984,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B20" s="2">
-        <v>15171619912</v>
+        <v>15026849936</v>
       </c>
       <c r="C20" s="1">
         <v>50</v>
@@ -956,11 +1000,11 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="2" t="s">
-        <v>24</v>
+      <c r="A21" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B21" s="2">
-        <v>18621960018</v>
+        <v>18317051518</v>
       </c>
       <c r="C21" s="1">
         <v>50</v>
@@ -974,10 +1018,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B22" s="2">
-        <v>18621108634</v>
+        <v>16621132173</v>
       </c>
       <c r="C22" s="1">
         <v>50</v>
@@ -991,10 +1035,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B23" s="2">
-        <v>18651197401</v>
+        <v>18003890093</v>
       </c>
       <c r="C23" s="1">
         <v>50</v>
@@ -1008,10 +1052,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>18817927267</v>
+        <v>13671590684</v>
       </c>
       <c r="C24" s="1">
         <v>50</v>
@@ -1025,10 +1069,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B25" s="2">
-        <v>15021031314</v>
+        <v>15999020637</v>
       </c>
       <c r="C25" s="1">
         <v>50</v>
@@ -1042,10 +1086,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B26" s="2">
-        <v>17317928585</v>
+        <v>15171619912</v>
       </c>
       <c r="C26" s="1">
         <v>50</v>
@@ -1059,10 +1103,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B27" s="2">
-        <v>13918785641</v>
+        <v>18621960018</v>
       </c>
       <c r="C27" s="1">
         <v>50</v>
@@ -1076,10 +1120,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B28" s="2">
-        <v>17637503745</v>
+        <v>18621108634</v>
       </c>
       <c r="C28" s="1">
         <v>50</v>
@@ -1093,10 +1137,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B29" s="2">
-        <v>17803836936</v>
+        <v>17317928585</v>
       </c>
       <c r="C29" s="1">
         <v>50</v>
@@ -1110,10 +1154,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B30" s="2">
-        <v>13886442915</v>
+        <v>13918785641</v>
       </c>
       <c r="C30" s="1">
         <v>50</v>
@@ -1127,10 +1171,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B31" s="2">
-        <v>17887914097</v>
+        <v>17637503745</v>
       </c>
       <c r="C31" s="1">
         <v>50</v>
@@ -1144,10 +1188,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B32" s="2">
-        <v>15216743887</v>
+        <v>17803836936</v>
       </c>
       <c r="C32" s="1">
         <v>50</v>
@@ -1161,10 +1205,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B33" s="2">
-        <v>17855058597</v>
+        <v>13886442915</v>
       </c>
       <c r="C33" s="1">
         <v>50</v>
@@ -1178,10 +1222,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B34" s="2">
-        <v>15999019148</v>
+        <v>17887914097</v>
       </c>
       <c r="C34" s="1">
         <v>50</v>
@@ -1195,10 +1239,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B35" s="2">
-        <v>17521299293</v>
+        <v>15216743887</v>
       </c>
       <c r="C35" s="1">
         <v>50</v>
@@ -1212,10 +1256,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B36" s="2">
-        <v>13162546993</v>
+        <v>17855058597</v>
       </c>
       <c r="C36" s="1">
         <v>50</v>
@@ -1229,10 +1273,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B37" s="2">
-        <v>18317917650</v>
+        <v>15999019148</v>
       </c>
       <c r="C37" s="1">
         <v>50</v>
@@ -1246,10 +1290,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" s="2">
-        <v>13127787859</v>
+        <v>18317917650</v>
       </c>
       <c r="C38" s="1">
         <v>50</v>
@@ -1263,10 +1307,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" s="2">
-        <v>17121080805</v>
+        <v>13127787859</v>
       </c>
       <c r="C39" s="1">
         <v>50</v>
@@ -1280,10 +1324,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" s="2">
-        <v>13167265671</v>
+        <v>17121080805</v>
       </c>
       <c r="C40" s="1">
         <v>50</v>
@@ -1297,10 +1341,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" s="2">
-        <v>18221943823</v>
+        <v>13167265671</v>
       </c>
       <c r="C41" s="1">
         <v>50</v>
@@ -1314,10 +1358,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" s="2">
-        <v>15026849936</v>
+        <v>18221943823</v>
       </c>
       <c r="C42" s="1">
         <v>50</v>
@@ -1331,27 +1375,27 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="2">
+        <v>15026849936</v>
+      </c>
+      <c r="C43" s="1">
+        <v>50</v>
+      </c>
+      <c r="D43" s="1">
+        <v>500</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B44" s="2">
         <v>1784964332</v>
-      </c>
-      <c r="C43" s="1">
-        <v>50</v>
-      </c>
-      <c r="D43" s="1">
-        <v>500</v>
-      </c>
-      <c r="E43" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" s="2">
-        <v>18964123219</v>
       </c>
       <c r="C44" s="1">
         <v>50</v>
@@ -1365,18 +1409,35 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="2">
+        <v>18964123219</v>
+      </c>
+      <c r="C45" s="1">
+        <v>50</v>
+      </c>
+      <c r="D45" s="1">
+        <v>500</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B46" s="2">
         <v>18817556171</v>
       </c>
-      <c r="C45" s="1">
-        <v>50</v>
-      </c>
-      <c r="D45" s="1">
-        <v>500</v>
-      </c>
-      <c r="E45" s="1">
+      <c r="C46" s="1">
+        <v>50</v>
+      </c>
+      <c r="D46" s="1">
+        <v>500</v>
+      </c>
+      <c r="E46" s="1">
         <v>0</v>
       </c>
     </row>

--- a/init/create_hander.xlsx
+++ b/init/create_hander.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
   <si>
     <t>拍手名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,6 +192,14 @@
   </si>
   <si>
     <t>吴佳乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -258,8 +266,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -294,7 +306,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="29">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -307,6 +319,8 @@
     <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -319,6 +333,8 @@
     <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -648,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -780,7 +796,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>49</v>
@@ -797,7 +813,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>49</v>
@@ -814,7 +830,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>49</v>
@@ -831,7 +847,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>49</v>
@@ -847,11 +863,11 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="2">
-        <v>13641923121</v>
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C12" s="1">
         <v>50</v>
@@ -865,10 +881,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="2">
-        <v>13918580174</v>
+        <v>52</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C13" s="1">
         <v>50</v>
@@ -882,10 +898,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B14" s="2">
-        <v>15021031314</v>
+        <v>13641923121</v>
       </c>
       <c r="C14" s="1">
         <v>50</v>
@@ -898,11 +914,11 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="2" t="s">
-        <v>27</v>
+      <c r="A15" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B15" s="2">
-        <v>18817927267</v>
+        <v>13918580174</v>
       </c>
       <c r="C15" s="1">
         <v>50</v>
@@ -916,10 +932,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2">
-        <v>18651197401</v>
+        <v>15021031314</v>
       </c>
       <c r="C16" s="1">
         <v>50</v>
@@ -933,10 +949,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2">
-        <v>17521299293</v>
+        <v>18817927267</v>
       </c>
       <c r="C17" s="1">
         <v>50</v>
@@ -950,10 +966,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2">
-        <v>13162546993</v>
+        <v>18651197401</v>
       </c>
       <c r="C18" s="1">
         <v>50</v>
@@ -967,10 +983,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2">
-        <v>15807473610</v>
+        <v>17521299293</v>
       </c>
       <c r="C19" s="1">
         <v>50</v>
@@ -984,10 +1000,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2">
-        <v>15026849936</v>
+        <v>13162546993</v>
       </c>
       <c r="C20" s="1">
         <v>50</v>
@@ -1000,11 +1016,11 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="1" t="s">
-        <v>18</v>
+      <c r="A21" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>18317051518</v>
+        <v>15807473610</v>
       </c>
       <c r="C21" s="1">
         <v>50</v>
@@ -1018,10 +1034,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="B22" s="2">
-        <v>16621132173</v>
+        <v>15026849936</v>
       </c>
       <c r="C22" s="1">
         <v>50</v>
@@ -1034,11 +1050,11 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="2" t="s">
-        <v>16</v>
+      <c r="A23" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B23" s="2">
-        <v>18003890093</v>
+        <v>18317051518</v>
       </c>
       <c r="C23" s="1">
         <v>50</v>
@@ -1052,10 +1068,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B24" s="2">
-        <v>13671590684</v>
+        <v>16621132173</v>
       </c>
       <c r="C24" s="1">
         <v>50</v>
@@ -1069,10 +1085,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B25" s="2">
-        <v>15999020637</v>
+        <v>18003890093</v>
       </c>
       <c r="C25" s="1">
         <v>50</v>
@@ -1086,10 +1102,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B26" s="2">
-        <v>15171619912</v>
+        <v>13671590684</v>
       </c>
       <c r="C26" s="1">
         <v>50</v>
@@ -1103,10 +1119,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B27" s="2">
-        <v>18621960018</v>
+        <v>15999020637</v>
       </c>
       <c r="C27" s="1">
         <v>50</v>
@@ -1120,10 +1136,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B28" s="2">
-        <v>18621108634</v>
+        <v>15171619912</v>
       </c>
       <c r="C28" s="1">
         <v>50</v>
@@ -1137,10 +1153,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B29" s="2">
-        <v>17317928585</v>
+        <v>18621960018</v>
       </c>
       <c r="C29" s="1">
         <v>50</v>
@@ -1154,10 +1170,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B30" s="2">
-        <v>13918785641</v>
+        <v>18621108634</v>
       </c>
       <c r="C30" s="1">
         <v>50</v>
@@ -1171,10 +1187,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B31" s="2">
-        <v>17637503745</v>
+        <v>17317928585</v>
       </c>
       <c r="C31" s="1">
         <v>50</v>
@@ -1188,10 +1204,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2">
-        <v>17803836936</v>
+        <v>13918785641</v>
       </c>
       <c r="C32" s="1">
         <v>50</v>
@@ -1205,10 +1221,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B33" s="2">
-        <v>13886442915</v>
+        <v>17637503745</v>
       </c>
       <c r="C33" s="1">
         <v>50</v>
@@ -1222,10 +1238,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B34" s="2">
-        <v>17887914097</v>
+        <v>17803836936</v>
       </c>
       <c r="C34" s="1">
         <v>50</v>
@@ -1239,10 +1255,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B35" s="2">
-        <v>15216743887</v>
+        <v>13886442915</v>
       </c>
       <c r="C35" s="1">
         <v>50</v>
@@ -1256,10 +1272,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B36" s="2">
-        <v>17855058597</v>
+        <v>17887914097</v>
       </c>
       <c r="C36" s="1">
         <v>50</v>
@@ -1273,10 +1289,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2">
-        <v>15999019148</v>
+        <v>15216743887</v>
       </c>
       <c r="C37" s="1">
         <v>50</v>
@@ -1290,10 +1306,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B38" s="2">
-        <v>18317917650</v>
+        <v>17855058597</v>
       </c>
       <c r="C38" s="1">
         <v>50</v>
@@ -1307,10 +1323,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B39" s="2">
-        <v>13127787859</v>
+        <v>15999019148</v>
       </c>
       <c r="C39" s="1">
         <v>50</v>
@@ -1324,10 +1340,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B40" s="2">
-        <v>17121080805</v>
+        <v>18317917650</v>
       </c>
       <c r="C40" s="1">
         <v>50</v>
@@ -1341,10 +1357,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B41" s="2">
-        <v>13167265671</v>
+        <v>13127787859</v>
       </c>
       <c r="C41" s="1">
         <v>50</v>
@@ -1358,10 +1374,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B42" s="2">
-        <v>18221943823</v>
+        <v>17121080805</v>
       </c>
       <c r="C42" s="1">
         <v>50</v>
@@ -1375,10 +1391,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B43" s="2">
-        <v>15026849936</v>
+        <v>13167265671</v>
       </c>
       <c r="C43" s="1">
         <v>50</v>
@@ -1392,52 +1408,86 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="2">
+        <v>18221943823</v>
+      </c>
+      <c r="C44" s="1">
+        <v>50</v>
+      </c>
+      <c r="D44" s="1">
+        <v>500</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="2">
+        <v>15026849936</v>
+      </c>
+      <c r="C45" s="1">
+        <v>50</v>
+      </c>
+      <c r="D45" s="1">
+        <v>500</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B46" s="2">
         <v>1784964332</v>
       </c>
-      <c r="C44" s="1">
-        <v>50</v>
-      </c>
-      <c r="D44" s="1">
-        <v>500</v>
-      </c>
-      <c r="E44" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="1" t="s">
+      <c r="C46" s="1">
+        <v>50</v>
+      </c>
+      <c r="D46" s="1">
+        <v>500</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B47" s="2">
         <v>18964123219</v>
       </c>
-      <c r="C45" s="1">
-        <v>50</v>
-      </c>
-      <c r="D45" s="1">
-        <v>500</v>
-      </c>
-      <c r="E45" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="1" t="s">
+      <c r="C47" s="1">
+        <v>50</v>
+      </c>
+      <c r="D47" s="1">
+        <v>500</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B48" s="2">
         <v>18817556171</v>
       </c>
-      <c r="C46" s="1">
-        <v>50</v>
-      </c>
-      <c r="D46" s="1">
-        <v>500</v>
-      </c>
-      <c r="E46" s="1">
+      <c r="C48" s="1">
+        <v>50</v>
+      </c>
+      <c r="D48" s="1">
+        <v>500</v>
+      </c>
+      <c r="E48" s="1">
         <v>0</v>
       </c>
     </row>

--- a/init/create_hander.xlsx
+++ b/init/create_hander.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="54">
   <si>
     <t>拍手名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -183,10 +183,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>朱甚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>未知</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -200,6 +196,14 @@
   </si>
   <si>
     <t>杨5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱甚1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱甚2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -266,8 +270,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -306,7 +312,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="31">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -321,6 +327,7 @@
     <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -335,6 +342,7 @@
     <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -664,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -697,7 +705,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1">
         <v>50</v>
@@ -714,7 +722,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="1">
         <v>50</v>
@@ -731,7 +739,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="1">
         <v>50</v>
@@ -748,7 +756,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="1">
         <v>50</v>
@@ -765,7 +773,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="1">
         <v>50</v>
@@ -782,7 +790,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="1">
         <v>50</v>
@@ -796,10 +804,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="1">
         <v>50</v>
@@ -816,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="1">
         <v>50</v>
@@ -833,7 +841,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="1">
         <v>50</v>
@@ -850,7 +858,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="1">
         <v>50</v>
@@ -867,7 +875,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="1">
         <v>50</v>
@@ -881,10 +889,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="1">
         <v>50</v>
@@ -1034,7 +1042,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B22" s="2">
         <v>15026849936</v>
@@ -1476,7 +1484,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48" s="2">
         <v>18817556171</v>
@@ -1488,6 +1496,23 @@
         <v>500</v>
       </c>
       <c r="E48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="2">
+        <v>18817556171</v>
+      </c>
+      <c r="C49" s="1">
+        <v>50</v>
+      </c>
+      <c r="D49" s="1">
+        <v>500</v>
+      </c>
+      <c r="E49" s="1">
         <v>0</v>
       </c>
     </row>

--- a/init/create_hander.xlsx
+++ b/init/create_hander.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15820" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="3820" yWindow="1140" windowWidth="15820" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="67">
   <si>
     <t>拍手名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -204,6 +205,51 @@
   </si>
   <si>
     <t>朱甚2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周寅杰</t>
+  </si>
+  <si>
+    <t>骆跃宾</t>
+  </si>
+  <si>
+    <t>吴佳乐</t>
+  </si>
+  <si>
+    <t>廖承剑</t>
+  </si>
+  <si>
+    <t>原有福</t>
+  </si>
+  <si>
+    <t>邹邦</t>
+  </si>
+  <si>
+    <t>陈艺鹏</t>
+  </si>
+  <si>
+    <t>通过名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方康</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱凯辉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汤陈文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴水波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -270,7 +316,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -302,8 +348,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -311,8 +371,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="45">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -328,6 +394,13 @@
     <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -343,6 +416,13 @@
     <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -674,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1514,6 +1594,358 @@
       </c>
       <c r="E49" s="1">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C9:I42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="4" max="4" width="21.1640625" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="3:9">
+      <c r="G9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="3:9">
+      <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3">
+        <v>13641923121</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="4">
+        <v>15026849936</v>
+      </c>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="3:9">
+      <c r="C11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="3">
+        <v>13918580174</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="4">
+        <v>13918580174</v>
+      </c>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="3:9">
+      <c r="C12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="3">
+        <v>15021031314</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="4">
+        <v>13641923121</v>
+      </c>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="3:9">
+      <c r="C13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="3">
+        <v>18817927267</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="3:9">
+      <c r="C14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="3">
+        <v>18651197401</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9">
+      <c r="C15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="3">
+        <v>17521299293</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="3:9">
+      <c r="C16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="3">
+        <v>13162546993</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="4">
+        <v>13918804405</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9">
+      <c r="C17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="3">
+        <v>15807473610</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="4">
+        <v>18317051518</v>
+      </c>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="3:9">
+      <c r="C18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="3">
+        <v>15026849936</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9">
+      <c r="C19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="3">
+        <v>18317051518</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9">
+      <c r="C20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="3">
+        <v>16621132173</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9">
+      <c r="C21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="3">
+        <v>18003890093</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9">
+      <c r="C22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="3">
+        <v>13671590684</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9">
+      <c r="C23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="3">
+        <v>15999020637</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9">
+      <c r="C24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="3">
+        <v>15171619912</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9">
+      <c r="C25" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="3">
+        <v>18621960018</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9">
+      <c r="C26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="3">
+        <v>18621108634</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9">
+      <c r="C27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="3">
+        <v>17317928585</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9">
+      <c r="C28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="3">
+        <v>13918785641</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9">
+      <c r="C29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="3">
+        <v>17637503745</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9">
+      <c r="C30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="3">
+        <v>17803836936</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9">
+      <c r="C31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="3">
+        <v>13886442915</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9">
+      <c r="C32" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="3">
+        <v>17887914097</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="3">
+        <v>15216743887</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="C34" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="3">
+        <v>17855058597</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4">
+      <c r="C35" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="3">
+        <v>15999019148</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4">
+      <c r="C36" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="3">
+        <v>18317917650</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4">
+      <c r="C37" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="3">
+        <v>13127787859</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4">
+      <c r="C38" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" s="3">
+        <v>17121080805</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4">
+      <c r="C39" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="3">
+        <v>13167265671</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4">
+      <c r="C40" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="3">
+        <v>18221943823</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4">
+      <c r="C41" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" s="3">
+        <v>15026849936</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4">
+      <c r="C42" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1784964332</v>
       </c>
     </row>
   </sheetData>
